--- a/MicroHard-Demand-Forecasting1.xlsx
+++ b/MicroHard-Demand-Forecasting1.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="500" firstSheet="2" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12450" tabRatio="500" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Static Method" sheetId="1" r:id="rId1"/>
@@ -253,9 +253,6 @@
   </cellStyleXfs>
   <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="4" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -266,6 +263,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2637,7 +2637,7 @@
   <dimension ref="A1:P20"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2714,7 +2714,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>11750</v>
       </c>
       <c r="F2">
@@ -2733,7 +2733,7 @@
         <f>(15575+(446.43*C2))*H2</f>
         <v>11631.463073257155</v>
       </c>
-      <c r="J2" s="2">
+      <c r="J2" s="1">
         <f t="shared" ref="J2:J13" si="2">I2-D2</f>
         <v>-118.53692674284503</v>
       </c>
@@ -2769,7 +2769,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>18500</v>
       </c>
       <c r="F3">
@@ -2788,7 +2788,7 @@
         <f>(15575+(446.43*C3))*H3</f>
         <v>18211.983355440789</v>
       </c>
-      <c r="J3" s="2">
+      <c r="J3" s="1">
         <f t="shared" si="2"/>
         <v>-288.01664455921127</v>
       </c>
@@ -2824,7 +2824,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>22333.33</v>
       </c>
       <c r="E4">
@@ -2847,7 +2847,7 @@
         <f>(15575+(446.43*C4))*H4</f>
         <v>22032.859395372503</v>
       </c>
-      <c r="J4" s="2">
+      <c r="J4" s="1">
         <f t="shared" si="2"/>
         <v>-300.47060462749869</v>
       </c>
@@ -2883,7 +2883,7 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>14416.67</v>
       </c>
       <c r="E5">
@@ -2906,7 +2906,7 @@
         <f>(15575+(446.43*C5))*H5</f>
         <v>15062.522601900931</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>645.8526019009314</v>
       </c>
@@ -2945,7 +2945,7 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>13000</v>
       </c>
       <c r="E6">
@@ -2964,7 +2964,7 @@
         <f>(15575+(446.43*C6))*H2</f>
         <v>12927.885192829302</v>
       </c>
-      <c r="J6" s="2">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>-72.114807170697532</v>
       </c>
@@ -3000,7 +3000,7 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>20166.669999999998</v>
       </c>
       <c r="E7">
@@ -3019,7 +3019,7 @@
         <f>(15575+(446.43*C7))*H3</f>
         <v>20186.830294719952</v>
       </c>
-      <c r="J7" s="2">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>20.160294719953527</v>
       </c>
@@ -3055,7 +3055,7 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>24500</v>
       </c>
       <c r="E8">
@@ -3074,7 +3074,7 @@
         <f>(15575+(446.43*C8))*H4</f>
         <v>24358.970493119119</v>
       </c>
-      <c r="J8" s="2">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>-141.02950688088094</v>
       </c>
@@ -3110,7 +3110,7 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>17166.669999999998</v>
       </c>
       <c r="E9">
@@ -3129,7 +3129,7 @@
         <f>(15575+(446.43*C9))*H5</f>
         <v>16611.850501934252</v>
       </c>
-      <c r="J9" s="2">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>-554.8194980657463</v>
       </c>
@@ -3168,7 +3168,7 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>14000</v>
       </c>
       <c r="E10">
@@ -3187,7 +3187,7 @@
         <f>(15575+(446.43*C10))*H2</f>
         <v>14224.307312401446</v>
       </c>
-      <c r="J10" s="2">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>224.30731240144632</v>
       </c>
@@ -3223,7 +3223,7 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>21833.33</v>
       </c>
       <c r="E11">
@@ -3242,7 +3242,7 @@
         <f>(15575+(446.43*C11))*H3</f>
         <v>22161.677233999111</v>
       </c>
-      <c r="J11" s="2">
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>328.34723399910945</v>
       </c>
@@ -3278,7 +3278,7 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>26166.67</v>
       </c>
       <c r="F12">
@@ -3293,7 +3293,7 @@
         <f>(15575+(446.43*C12))*H4</f>
         <v>26685.081590865731</v>
       </c>
-      <c r="J12" s="2">
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
         <v>518.41159086573316</v>
       </c>
@@ -3329,7 +3329,7 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>18333.330000000002</v>
       </c>
       <c r="F13">
@@ -3344,7 +3344,7 @@
         <f>(15575+(446.43*C13))*H5</f>
         <v>18161.17840196758</v>
       </c>
-      <c r="J13" s="2">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>-172.15159803242204</v>
       </c>
@@ -3387,7 +3387,7 @@
         <f>(15775 + 14* 446.43)*H2</f>
         <v>15990.03377462251</v>
       </c>
-      <c r="J14" s="2"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15">
@@ -3400,7 +3400,7 @@
         <f>(15775 + 14* 446.43)*H3</f>
         <v>24357.706322694663</v>
       </c>
-      <c r="J15" s="2"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16">
@@ -3413,7 +3413,7 @@
         <f>(15775 + 14* 446.43)*H4</f>
         <v>28690.188523447763</v>
       </c>
-      <c r="J16" s="2"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B17">
@@ -3426,7 +3426,7 @@
         <f>(15775 + 14* 446.43)*H5</f>
         <v>19109.36652151063</v>
       </c>
-      <c r="J17" s="2"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="G20" t="s">
@@ -3507,7 +3507,7 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D2" s="1">
         <v>11750</v>
       </c>
     </row>
@@ -3518,7 +3518,7 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>18500</v>
       </c>
     </row>
@@ -3529,7 +3529,7 @@
       <c r="C4">
         <v>3</v>
       </c>
-      <c r="D4" s="3">
+      <c r="D4" s="2">
         <v>22333.33</v>
       </c>
     </row>
@@ -3540,10 +3540,10 @@
       <c r="C5">
         <v>4</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>14416.67</v>
       </c>
-      <c r="E5" s="3">
+      <c r="E5" s="2">
         <f t="shared" ref="E5:E13" si="0">AVERAGE(D2:D5)</f>
         <v>16750</v>
       </c>
@@ -3558,18 +3558,18 @@
       <c r="C6">
         <v>5</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D6" s="1">
         <v>13000</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <f t="shared" si="0"/>
         <v>17062.5</v>
       </c>
-      <c r="F6" s="3">
+      <c r="F6" s="2">
         <f t="shared" ref="F6:F14" si="1">E5</f>
         <v>16750</v>
       </c>
-      <c r="G6" s="3">
+      <c r="G6" s="2">
         <f t="shared" ref="G6:G13" si="2">F6-D6</f>
         <v>3750</v>
       </c>
@@ -3605,18 +3605,18 @@
       <c r="C7">
         <v>6</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>20166.669999999998</v>
       </c>
-      <c r="E7" s="3">
+      <c r="E7" s="2">
         <f t="shared" si="0"/>
         <v>17479.1675</v>
       </c>
-      <c r="F7" s="3">
+      <c r="F7" s="2">
         <f t="shared" si="1"/>
         <v>17062.5</v>
       </c>
-      <c r="G7" s="3">
+      <c r="G7" s="2">
         <f t="shared" si="2"/>
         <v>-3104.1699999999983</v>
       </c>
@@ -3652,18 +3652,18 @@
       <c r="C8">
         <v>7</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>24500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <f t="shared" si="0"/>
         <v>18020.834999999999</v>
       </c>
-      <c r="F8" s="3">
+      <c r="F8" s="2">
         <f t="shared" si="1"/>
         <v>17479.1675</v>
       </c>
-      <c r="G8" s="3">
+      <c r="G8" s="2">
         <f t="shared" si="2"/>
         <v>-7020.8325000000004</v>
       </c>
@@ -3699,18 +3699,18 @@
       <c r="C9">
         <v>8</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>17166.669999999998</v>
       </c>
-      <c r="E9" s="3">
+      <c r="E9" s="2">
         <f t="shared" si="0"/>
         <v>18708.334999999999</v>
       </c>
-      <c r="F9" s="3">
+      <c r="F9" s="2">
         <f t="shared" si="1"/>
         <v>18020.834999999999</v>
       </c>
-      <c r="G9" s="3">
+      <c r="G9" s="2">
         <f t="shared" si="2"/>
         <v>854.16500000000087</v>
       </c>
@@ -3749,18 +3749,18 @@
       <c r="C10">
         <v>9</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>14000</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <f t="shared" si="0"/>
         <v>18958.334999999999</v>
       </c>
-      <c r="F10" s="3">
+      <c r="F10" s="2">
         <f t="shared" si="1"/>
         <v>18708.334999999999</v>
       </c>
-      <c r="G10" s="3">
+      <c r="G10" s="2">
         <f t="shared" si="2"/>
         <v>4708.3349999999991</v>
       </c>
@@ -3796,18 +3796,18 @@
       <c r="C11">
         <v>10</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>21833.33</v>
       </c>
-      <c r="E11" s="3">
+      <c r="E11" s="2">
         <f t="shared" si="0"/>
         <v>19375</v>
       </c>
-      <c r="F11" s="3">
+      <c r="F11" s="2">
         <f t="shared" si="1"/>
         <v>18958.334999999999</v>
       </c>
-      <c r="G11" s="3">
+      <c r="G11" s="2">
         <f t="shared" si="2"/>
         <v>-2874.9950000000026</v>
       </c>
@@ -3843,18 +3843,18 @@
       <c r="C12">
         <v>11</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>26166.67</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <f t="shared" si="0"/>
         <v>19791.6675</v>
       </c>
-      <c r="F12" s="3">
+      <c r="F12" s="2">
         <f t="shared" si="1"/>
         <v>19375</v>
       </c>
-      <c r="G12" s="3">
+      <c r="G12" s="2">
         <f t="shared" si="2"/>
         <v>-6791.6699999999983</v>
       </c>
@@ -3890,18 +3890,18 @@
       <c r="C13">
         <v>12</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>18333.330000000002</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="2">
         <f t="shared" si="0"/>
         <v>20083.3325</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="2">
         <f t="shared" si="1"/>
         <v>19791.6675</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="2">
         <f t="shared" si="2"/>
         <v>1458.3374999999978</v>
       </c>
@@ -3940,8 +3940,8 @@
       <c r="C14">
         <v>13</v>
       </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4">
+      <c r="E14" s="2"/>
+      <c r="F14" s="3">
         <f t="shared" si="1"/>
         <v>20083.3325</v>
       </c>
@@ -3953,8 +3953,8 @@
       <c r="C15">
         <v>14</v>
       </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="4">
+      <c r="E15" s="2"/>
+      <c r="F15" s="3">
         <f>E13</f>
         <v>20083.3325</v>
       </c>
@@ -3966,8 +3966,8 @@
       <c r="C16">
         <v>15</v>
       </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="4">
+      <c r="E16" s="2"/>
+      <c r="F16" s="3">
         <f>E13</f>
         <v>20083.3325</v>
       </c>
@@ -3979,8 +3979,8 @@
       <c r="C17">
         <v>16</v>
       </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="4">
+      <c r="E17" s="2"/>
+      <c r="F17" s="3">
         <f>E13</f>
         <v>20083.3325</v>
       </c>
@@ -4053,7 +4053,7 @@
       <c r="C2">
         <v>0</v>
       </c>
-      <c r="E2" s="2">
+      <c r="E2" s="1">
         <f>AVERAGE(D3:D14)</f>
         <v>18513.889166666664</v>
       </c>
@@ -4068,18 +4068,18 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>11750</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E14" si="0">0.1*D3+(1-0.1)*E2</f>
         <v>17837.500249999997</v>
       </c>
-      <c r="F3" s="2">
+      <c r="F3" s="1">
         <f t="shared" ref="F3:F15" si="1">E2</f>
         <v>18513.889166666664</v>
       </c>
-      <c r="G3" s="2">
+      <c r="G3" s="1">
         <f t="shared" ref="G3:G14" si="2">F3-D3</f>
         <v>6763.8891666666641</v>
       </c>
@@ -4115,18 +4115,18 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>18500</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
         <v>17903.750224999996</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4" s="1">
         <f t="shared" si="1"/>
         <v>17837.500249999997</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <f t="shared" si="2"/>
         <v>-662.49975000000268</v>
       </c>
@@ -4162,18 +4162,18 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>22333.33</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
         <v>18346.708202499998</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="1">
         <f t="shared" si="1"/>
         <v>17903.750224999996</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <f t="shared" si="2"/>
         <v>-4429.5797750000056</v>
       </c>
@@ -4209,18 +4209,18 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>14416.67</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
         <v>17953.704382250002</v>
       </c>
-      <c r="F6" s="2">
+      <c r="F6" s="1">
         <f t="shared" si="1"/>
         <v>18346.708202499998</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <f t="shared" si="2"/>
         <v>3930.0382024999981</v>
       </c>
@@ -4259,18 +4259,18 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>13000</v>
       </c>
       <c r="E7">
         <f t="shared" si="0"/>
         <v>17458.333944025002</v>
       </c>
-      <c r="F7" s="2">
+      <c r="F7" s="1">
         <f t="shared" si="1"/>
         <v>17953.704382250002</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <f t="shared" si="2"/>
         <v>4953.7043822500018</v>
       </c>
@@ -4306,18 +4306,18 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>20166.669999999998</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
         <v>17729.167549622503</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8" s="1">
         <f t="shared" si="1"/>
         <v>17458.333944025002</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="1">
         <f t="shared" si="2"/>
         <v>-2708.3360559749963</v>
       </c>
@@ -4353,18 +4353,18 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>24500</v>
       </c>
       <c r="E9">
         <f t="shared" si="0"/>
         <v>18406.250794660253</v>
       </c>
-      <c r="F9" s="2">
+      <c r="F9" s="1">
         <f t="shared" si="1"/>
         <v>17729.167549622503</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="1">
         <f t="shared" si="2"/>
         <v>-6770.8324503774966</v>
       </c>
@@ -4400,18 +4400,18 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>17166.669999999998</v>
       </c>
       <c r="E10">
         <f t="shared" si="0"/>
         <v>18282.292715194228</v>
       </c>
-      <c r="F10" s="2">
+      <c r="F10" s="1">
         <f t="shared" si="1"/>
         <v>18406.250794660253</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="1">
         <f t="shared" si="2"/>
         <v>1239.5807946602545</v>
       </c>
@@ -4450,18 +4450,18 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>14000</v>
       </c>
       <c r="E11">
         <f t="shared" si="0"/>
         <v>17854.063443674804</v>
       </c>
-      <c r="F11" s="2">
+      <c r="F11" s="1">
         <f t="shared" si="1"/>
         <v>18282.292715194228</v>
       </c>
-      <c r="G11" s="2">
+      <c r="G11" s="1">
         <f t="shared" si="2"/>
         <v>4282.2927151942276</v>
       </c>
@@ -4497,18 +4497,18 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>21833.33</v>
       </c>
       <c r="E12">
         <f t="shared" si="0"/>
         <v>18251.990099307324</v>
       </c>
-      <c r="F12" s="2">
+      <c r="F12" s="1">
         <f t="shared" si="1"/>
         <v>17854.063443674804</v>
       </c>
-      <c r="G12" s="2">
+      <c r="G12" s="1">
         <f t="shared" si="2"/>
         <v>-3979.2665563251976</v>
       </c>
@@ -4544,18 +4544,18 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>26166.67</v>
       </c>
       <c r="E13">
         <f t="shared" si="0"/>
         <v>19043.458089376592</v>
       </c>
-      <c r="F13" s="2">
+      <c r="F13" s="1">
         <f t="shared" si="1"/>
         <v>18251.990099307324</v>
       </c>
-      <c r="G13" s="2">
+      <c r="G13" s="1">
         <f t="shared" si="2"/>
         <v>-7914.679900692674</v>
       </c>
@@ -4591,18 +4591,18 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>18333.330000000002</v>
       </c>
       <c r="E14">
         <f t="shared" si="0"/>
         <v>18972.445280438933</v>
       </c>
-      <c r="F14" s="2">
+      <c r="F14" s="1">
         <f t="shared" si="1"/>
         <v>19043.458089376592</v>
       </c>
-      <c r="G14" s="2">
+      <c r="G14" s="1">
         <f t="shared" si="2"/>
         <v>710.12808937659065</v>
       </c>
@@ -4641,7 +4641,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="F15" s="2">
+      <c r="F15" s="1">
         <f t="shared" si="1"/>
         <v>18972.445280438933</v>
       </c>
@@ -4653,7 +4653,7 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="F16" s="2">
+      <c r="F16" s="1">
         <f>E14</f>
         <v>18972.445280438933</v>
       </c>
@@ -4665,7 +4665,7 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="F17" s="2">
+      <c r="F17" s="1">
         <f>E14</f>
         <v>18972.445280438933</v>
       </c>
@@ -4677,7 +4677,7 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="F18" s="2">
+      <c r="F18" s="1">
         <f>E14</f>
         <v>18972.445280438933</v>
       </c>
@@ -4769,7 +4769,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>11750</v>
       </c>
       <c r="E3">
@@ -4784,7 +4784,7 @@
         <f t="shared" ref="G3:G14" si="2">E2+F2</f>
         <v>15043.8</v>
       </c>
-      <c r="H3" s="2">
+      <c r="H3" s="1">
         <f t="shared" ref="H3:H14" si="3">G3-D3</f>
         <v>3293.7999999999993</v>
       </c>
@@ -4820,7 +4820,7 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>18500</v>
       </c>
       <c r="E4">
@@ -4835,7 +4835,7 @@
         <f t="shared" si="2"/>
         <v>15182.344000000001</v>
       </c>
-      <c r="H4" s="2">
+      <c r="H4" s="1">
         <f t="shared" si="3"/>
         <v>-3317.655999999999</v>
       </c>
@@ -4871,7 +4871,7 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>22333.33</v>
       </c>
       <c r="E5">
@@ -4886,7 +4886,7 @@
         <f t="shared" si="2"/>
         <v>16048.386720000002</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="1">
         <f t="shared" si="3"/>
         <v>-6284.9432799999995</v>
       </c>
@@ -4922,7 +4922,7 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>14416.67</v>
       </c>
       <c r="E6">
@@ -4937,7 +4937,7 @@
         <f t="shared" si="2"/>
         <v>17336.857033600005</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="1">
         <f t="shared" si="3"/>
         <v>2920.1870336000047</v>
       </c>
@@ -4976,7 +4976,7 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>13000</v>
       </c>
       <c r="E7">
@@ -4991,7 +4991,7 @@
         <f t="shared" si="2"/>
         <v>17646.410575168004</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="1">
         <f t="shared" si="3"/>
         <v>4646.4105751680036</v>
       </c>
@@ -5027,7 +5027,7 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>20166.669999999998</v>
       </c>
       <c r="E8">
@@ -5042,7 +5042,7 @@
         <f t="shared" si="2"/>
         <v>17690.413551075846</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="1">
         <f t="shared" si="3"/>
         <v>-2476.2564489241522</v>
       </c>
@@ -5078,7 +5078,7 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>24500</v>
       </c>
       <c r="E9">
@@ -5093,7 +5093,7 @@
         <f t="shared" si="2"/>
         <v>18496.208358371387</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="1">
         <f t="shared" si="3"/>
         <v>-6003.7916416286134</v>
       </c>
@@ -5129,7 +5129,7 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>17166.669999999998</v>
       </c>
       <c r="E10">
@@ -5144,7 +5144,7 @@
         <f t="shared" si="2"/>
         <v>19774.832517769948</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="1">
         <f t="shared" si="3"/>
         <v>2608.1625177699498</v>
       </c>
@@ -5183,7 +5183,7 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>14000</v>
       </c>
       <c r="E11">
@@ -5198,7 +5198,7 @@
         <f t="shared" si="2"/>
         <v>20140.098010873255</v>
       </c>
-      <c r="H11" s="2">
+      <c r="H11" s="1">
         <f t="shared" si="3"/>
         <v>6140.0980108732547</v>
       </c>
@@ -5234,7 +5234,7 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>21833.33</v>
       </c>
       <c r="E12">
@@ -5249,7 +5249,7 @@
         <f t="shared" si="2"/>
         <v>20029.367994448763</v>
       </c>
-      <c r="H12" s="2">
+      <c r="H12" s="1">
         <f t="shared" si="3"/>
         <v>-1803.9620055512387</v>
       </c>
@@ -5285,7 +5285,7 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>26166.67</v>
       </c>
       <c r="E13">
@@ -5300,7 +5300,7 @@
         <f t="shared" si="2"/>
         <v>20749.123219777743</v>
       </c>
-      <c r="H13" s="2">
+      <c r="H13" s="1">
         <f t="shared" si="3"/>
         <v>-5417.5467802222556</v>
       </c>
@@ -5336,7 +5336,7 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>18333.330000000002</v>
       </c>
       <c r="E14">
@@ -5351,7 +5351,7 @@
         <f t="shared" si="2"/>
         <v>21938.587858178274</v>
       </c>
-      <c r="H14" s="2">
+      <c r="H14" s="1">
         <f t="shared" si="3"/>
         <v>3605.2578581782727</v>
       </c>
@@ -5443,7 +5443,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:I22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
@@ -5506,7 +5506,7 @@
       <c r="C3">
         <v>1</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D3" s="1">
         <v>11750</v>
       </c>
       <c r="E3">
@@ -5526,7 +5526,7 @@
         <v>446.43</v>
       </c>
       <c r="I3">
-        <f t="shared" ref="I3:I18" si="3">(G2+H2) *F3</f>
+        <f t="shared" ref="I3:I15" si="3">(G2+H2) *F3</f>
         <v>11750</v>
       </c>
     </row>
@@ -5537,7 +5537,7 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4" s="1">
         <v>18500</v>
       </c>
       <c r="E4">
@@ -5568,7 +5568,7 @@
       <c r="C5">
         <v>3</v>
       </c>
-      <c r="D5" s="3">
+      <c r="D5" s="2">
         <v>22333.33</v>
       </c>
       <c r="E5">
@@ -5599,7 +5599,7 @@
       <c r="C6">
         <v>4</v>
       </c>
-      <c r="D6" s="3">
+      <c r="D6" s="2">
         <v>14416.67</v>
       </c>
       <c r="E6">
@@ -5633,7 +5633,7 @@
       <c r="C7">
         <v>5</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D7" s="1">
         <v>13000</v>
       </c>
       <c r="E7">
@@ -5664,7 +5664,7 @@
       <c r="C8">
         <v>6</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8" s="1">
         <v>20166.669999999998</v>
       </c>
       <c r="E8">
@@ -5695,7 +5695,7 @@
       <c r="C9">
         <v>7</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D9" s="1">
         <v>24500</v>
       </c>
       <c r="E9">
@@ -5726,7 +5726,7 @@
       <c r="C10">
         <v>8</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D10" s="1">
         <v>17166.669999999998</v>
       </c>
       <c r="E10">
@@ -5760,7 +5760,7 @@
       <c r="C11">
         <v>9</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="1">
         <v>14000</v>
       </c>
       <c r="E11">
@@ -5791,7 +5791,7 @@
       <c r="C12">
         <v>10</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D12" s="1">
         <v>21833.33</v>
       </c>
       <c r="E12">
@@ -5822,7 +5822,7 @@
       <c r="C13">
         <v>11</v>
       </c>
-      <c r="D13" s="2">
+      <c r="D13" s="1">
         <v>26166.67</v>
       </c>
       <c r="E13">
@@ -5853,7 +5853,7 @@
       <c r="C14">
         <v>12</v>
       </c>
-      <c r="D14" s="2">
+      <c r="D14" s="1">
         <v>18333.330000000002</v>
       </c>
       <c r="E14">
@@ -5887,7 +5887,7 @@
       <c r="C15">
         <v>13</v>
       </c>
-      <c r="D15" s="5">
+      <c r="D15" s="4">
         <f>(G14+H14) *F15</f>
         <v>15666.469527139394</v>
       </c>
@@ -5903,7 +5903,7 @@
         <f t="shared" si="2"/>
         <v>447.24222496380668</v>
       </c>
-      <c r="I15" s="6">
+      <c r="I15" s="5">
         <f t="shared" si="3"/>
         <v>15666.469527139394</v>
       </c>
@@ -5915,7 +5915,7 @@
       <c r="C16">
         <v>14</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <f>(G14+2*H14) *F16</f>
         <v>24482.620251958495</v>
       </c>
@@ -5931,7 +5931,7 @@
         <f t="shared" si="2"/>
         <v>447.24222496380656</v>
       </c>
-      <c r="I16" s="6">
+      <c r="I16" s="5">
         <f>(G14+2*H14) *F16</f>
         <v>24482.620251958495</v>
       </c>
@@ -5943,7 +5943,7 @@
       <c r="C17">
         <v>15</v>
       </c>
-      <c r="D17" s="5">
+      <c r="D17" s="4">
         <f>(G14+3*H14) *F17</f>
         <v>29376.222268884598</v>
       </c>
@@ -5959,7 +5959,7 @@
         <f t="shared" si="2"/>
         <v>447.24222496380662</v>
       </c>
-      <c r="I17" s="6">
+      <c r="I17" s="5">
         <f>(G14+3*H14) *F17</f>
         <v>29376.222268884598</v>
       </c>
@@ -5971,7 +5971,7 @@
       <c r="C18">
         <v>16</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f>(G14+4*H14) *F18</f>
         <v>19000.754737461757</v>
       </c>
@@ -5987,7 +5987,7 @@
         <f t="shared" si="2"/>
         <v>447.24222496380651</v>
       </c>
-      <c r="I18" s="6">
+      <c r="I18" s="5">
         <f>(G14+4*H14) *F18</f>
         <v>19000.754737461757</v>
       </c>
@@ -6028,7 +6028,7 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:I18"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -6043,48 +6043,48 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="1"/>
+      <c r="B3" s="9"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8">
+      <c r="B4" s="7">
         <v>0.41385531467904002</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="8">
+      <c r="B5" s="7">
         <v>0.17127622148808699</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="A6" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B6" s="8">
+      <c r="B6" s="7">
         <v>8.8403843636895907E-2</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
+      <c r="A7" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="B7" s="8">
+      <c r="B7" s="7">
         <v>4440.1999219050103</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B8" s="9">
+      <c r="B8" s="8">
         <v>12</v>
       </c>
     </row>
@@ -6094,72 +6094,72 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7" t="s">
+      <c r="A11" s="6"/>
+      <c r="B11" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="C11" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="7" t="s">
+      <c r="D11" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="7" t="s">
+      <c r="E11" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="F11" s="6" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
+      <c r="A12" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B12" s="8">
+      <c r="B12" s="7">
         <v>1</v>
       </c>
-      <c r="C12" s="8">
+      <c r="C12" s="7">
         <v>40746688.850039303</v>
       </c>
-      <c r="D12" s="8">
+      <c r="D12" s="7">
         <v>40746688.850039303</v>
       </c>
-      <c r="E12" s="8">
+      <c r="E12" s="7">
         <v>2.0667467970526601</v>
       </c>
-      <c r="F12" s="8">
+      <c r="F12" s="7">
         <v>0.181088529177931</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="8" t="s">
+      <c r="A13" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="B13" s="8">
+      <c r="B13" s="7">
         <v>10</v>
       </c>
-      <c r="C13" s="8">
+      <c r="C13" s="7">
         <v>197153753.46485201</v>
       </c>
-      <c r="D13" s="8">
+      <c r="D13" s="7">
         <v>19715375.346485201</v>
       </c>
-      <c r="E13" s="8"/>
-      <c r="F13" s="8"/>
+      <c r="E13" s="7"/>
+      <c r="F13" s="7"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="9" t="s">
+      <c r="A14" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="B14" s="9">
+      <c r="B14" s="8">
         <v>11</v>
       </c>
-      <c r="C14" s="9">
+      <c r="C14" s="8">
         <v>237900442.31489199</v>
       </c>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="9"/>
+      <c r="D14" s="8"/>
+      <c r="E14" s="8"/>
+      <c r="F14" s="8"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
